--- a/docs/Gantt-chart.xlsx
+++ b/docs/Gantt-chart.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{E81FB1EC-062F-3745-935A-9B7EAA1ABD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{9BF998D0-FEA4-EA4D-BFED-BA7596D6C687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="29340" windowHeight="17860" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
     <sheet name="Green" sheetId="18" r:id="rId2"/>
     <sheet name="Blue" sheetId="17" r:id="rId3"/>
-    <sheet name="Purple" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="20" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId5"/>
+    <sheet name="Purple" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Milestone_Marker" localSheetId="2">Blue!$C$5</definedName>
@@ -19,7 +21,7 @@
     <definedName name="Milestone_Marker">Purple!$C$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Blue!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Green!$6:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">Purple!$6:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">Purple!$6:$8</definedName>
     <definedName name="Project_Start" localSheetId="2">Blue!$C$4</definedName>
     <definedName name="Project_Start" localSheetId="1">Green!$C$5</definedName>
     <definedName name="Project_Start">Purple!$C$5</definedName>
@@ -28,6 +30,8 @@
     <definedName name="Scrolling_Increment">Purple!$U$5</definedName>
     <definedName name="Today" localSheetId="2">TODAY()</definedName>
     <definedName name="Today" localSheetId="1">TODAY()</definedName>
+    <definedName name="Today" localSheetId="5">TODAY()</definedName>
+    <definedName name="Today" localSheetId="4">TODAY()</definedName>
     <definedName name="Today" localSheetId="3">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="70">
   <si>
     <t>Project start date:</t>
   </si>
@@ -235,15 +239,43 @@
   <si>
     <t>Post-Deployment Monitoring and Updates</t>
   </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="48" x14ac:knownFonts="1">
     <font>
@@ -574,7 +606,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +665,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -903,7 +941,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1316,6 +1354,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1332,96 +1373,88 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="38">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color theme="8" tint="-0.499984740745262"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color theme="8" tint="-0.499984740745262"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1545,6 +1578,96 @@
       <border>
         <right/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1732,22 +1855,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="5" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
-      <tableStyleElement type="headerRow" dxfId="30"/>
-      <tableStyleElement type="firstRowStripe" dxfId="29"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="34"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="totalRow" dxfId="24"/>
-      <tableStyleElement type="firstColumn" dxfId="23"/>
-      <tableStyleElement type="lastColumn" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="firstColumn" dxfId="29"/>
+      <tableStyleElement type="lastColumn" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2065,7 +2188,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EE7DA96-2148-4820-AB9C-230AD0CA6702}" name="Milestones34" displayName="Milestones34" ref="B8:F34" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EE7DA96-2148-4820-AB9C-230AD0CA6702}" name="Milestones34" displayName="Milestones34" ref="B8:F34" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="B8:F34" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2090,7 +2213,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35262E6B-D397-41BC-8148-E03FF3C288A5}" name="Milestones3" displayName="Milestones3" ref="B7:F33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35262E6B-D397-41BC-8148-E03FF3C288A5}" name="Milestones3" displayName="Milestones3" ref="B7:F33" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B7:F33" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2099,11 +2222,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85ADADF1-A17A-4DDD-BD29-0513EA44BD28}" name="Milestone description" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{7CE57B28-C7D6-4943-9CB2-5403F155663C}" name="Assigned to" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4ABFA9C0-6C24-4FBD-B36B-5E50E5ED1573}" name="Progress" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{FDB2D45E-77F7-41D1-8F04-238D562FA535}" name="Start" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{B63E4B4E-8A77-4BDD-90B2-1DB4B39AD960}" name="Days" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{85ADADF1-A17A-4DDD-BD29-0513EA44BD28}" name="Milestone description" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{7CE57B28-C7D6-4943-9CB2-5403F155663C}" name="Assigned to" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{4ABFA9C0-6C24-4FBD-B36B-5E50E5ED1573}" name="Progress" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{FDB2D45E-77F7-41D1-8F04-238D562FA535}" name="Start" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{B63E4B4E-8A77-4BDD-90B2-1DB4B39AD960}" name="Days" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2115,7 +2238,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B8:F34" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B8:F34" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="B8:F34" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9363,17 +9486,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK34">
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK34">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>H$7&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9497,7 +9620,7 @@
   <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -16282,17 +16405,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BK7">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>H$6&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:BK33">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>AND(H$6&gt;=$E8+1,H$6&lt;=$E8+$F8-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK33">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>H$6&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16408,6 +16531,2920 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D39D9CE-549A-5744-BDF5-8AC542D9E5BD}">
+  <dimension ref="B5:BK31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="63" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="H6" s="159">
+        <v>45488</v>
+      </c>
+      <c r="I6" s="159">
+        <v>45489</v>
+      </c>
+      <c r="J6" s="159">
+        <v>45490</v>
+      </c>
+      <c r="K6" s="159">
+        <v>45491</v>
+      </c>
+      <c r="L6" s="159">
+        <v>45492</v>
+      </c>
+      <c r="M6" s="159">
+        <v>45493</v>
+      </c>
+      <c r="N6" s="159">
+        <v>45494</v>
+      </c>
+      <c r="O6" s="159">
+        <v>45495</v>
+      </c>
+      <c r="P6" s="159">
+        <v>45496</v>
+      </c>
+      <c r="Q6" s="159">
+        <v>45497</v>
+      </c>
+      <c r="R6" s="159">
+        <v>45498</v>
+      </c>
+      <c r="S6" s="159">
+        <v>45499</v>
+      </c>
+      <c r="T6" s="159">
+        <v>45500</v>
+      </c>
+      <c r="U6" s="159">
+        <v>45501</v>
+      </c>
+      <c r="V6" s="159">
+        <v>45502</v>
+      </c>
+      <c r="W6" s="159">
+        <v>45503</v>
+      </c>
+      <c r="X6" s="159">
+        <v>45504</v>
+      </c>
+      <c r="Y6" s="159">
+        <v>45505</v>
+      </c>
+      <c r="Z6" s="159">
+        <v>45506</v>
+      </c>
+      <c r="AA6" s="159">
+        <v>45507</v>
+      </c>
+      <c r="AB6" s="159">
+        <v>45508</v>
+      </c>
+      <c r="AC6" s="159">
+        <v>45509</v>
+      </c>
+      <c r="AD6" s="159">
+        <v>45510</v>
+      </c>
+      <c r="AE6" s="159">
+        <v>45511</v>
+      </c>
+      <c r="AF6" s="159">
+        <v>45512</v>
+      </c>
+      <c r="AG6" s="159">
+        <v>45513</v>
+      </c>
+      <c r="AH6" s="159">
+        <v>45514</v>
+      </c>
+      <c r="AI6" s="159">
+        <v>45515</v>
+      </c>
+      <c r="AJ6" s="159">
+        <v>45516</v>
+      </c>
+      <c r="AK6" s="159">
+        <v>45517</v>
+      </c>
+      <c r="AL6" s="159">
+        <v>45518</v>
+      </c>
+      <c r="AM6" s="159">
+        <v>45519</v>
+      </c>
+      <c r="AN6" s="159">
+        <v>45520</v>
+      </c>
+      <c r="AO6" s="159">
+        <v>45521</v>
+      </c>
+      <c r="AP6" s="159">
+        <v>45522</v>
+      </c>
+      <c r="AQ6" s="159">
+        <v>45523</v>
+      </c>
+      <c r="AR6" s="159">
+        <v>45524</v>
+      </c>
+      <c r="AS6" s="159">
+        <v>45525</v>
+      </c>
+      <c r="AT6" s="159">
+        <v>45526</v>
+      </c>
+      <c r="AU6" s="159">
+        <v>45527</v>
+      </c>
+      <c r="AV6" s="159">
+        <v>45528</v>
+      </c>
+      <c r="AW6" s="159">
+        <v>45529</v>
+      </c>
+      <c r="AX6" s="159">
+        <v>45530</v>
+      </c>
+      <c r="AY6" s="159">
+        <v>45531</v>
+      </c>
+      <c r="AZ6" s="159">
+        <v>45532</v>
+      </c>
+      <c r="BA6" s="159">
+        <v>45533</v>
+      </c>
+      <c r="BB6" s="159">
+        <v>45534</v>
+      </c>
+      <c r="BC6" s="159">
+        <v>45535</v>
+      </c>
+      <c r="BD6" s="159">
+        <v>45536</v>
+      </c>
+      <c r="BE6" s="159">
+        <v>45537</v>
+      </c>
+      <c r="BF6" s="159">
+        <v>45538</v>
+      </c>
+      <c r="BG6" s="159">
+        <v>45539</v>
+      </c>
+      <c r="BH6" s="159">
+        <v>45540</v>
+      </c>
+      <c r="BI6" s="159">
+        <v>45541</v>
+      </c>
+      <c r="BJ6" s="159">
+        <v>45542</v>
+      </c>
+      <c r="BK6" s="159">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="7" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W7" t="s">
+        <v>66</v>
+      </c>
+      <c r="X7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" t="s">
+        <v>62</v>
+      </c>
+      <c r="W9" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="158">
+        <v>45488</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="158">
+        <v>45491</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="158">
+        <v>45496</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" t="s">
+        <v>62</v>
+      </c>
+      <c r="X12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="158">
+        <v>45500</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" t="s">
+        <v>62</v>
+      </c>
+      <c r="X13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="158">
+        <v>45503</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" t="s">
+        <v>62</v>
+      </c>
+      <c r="X14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="158"/>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" t="s">
+        <v>62</v>
+      </c>
+      <c r="X15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="158">
+        <v>45505</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" t="s">
+        <v>62</v>
+      </c>
+      <c r="X16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="158">
+        <v>45508</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" t="s">
+        <v>62</v>
+      </c>
+      <c r="W17" t="s">
+        <v>62</v>
+      </c>
+      <c r="X17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>0.33</v>
+      </c>
+      <c r="E18" s="158">
+        <v>45512</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="158">
+        <v>45517</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" t="s">
+        <v>62</v>
+      </c>
+      <c r="S19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U19" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19" t="s">
+        <v>62</v>
+      </c>
+      <c r="W19" t="s">
+        <v>62</v>
+      </c>
+      <c r="X19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="158">
+        <v>45520</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>62</v>
+      </c>
+      <c r="R20" t="s">
+        <v>62</v>
+      </c>
+      <c r="S20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" t="s">
+        <v>62</v>
+      </c>
+      <c r="U20" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" t="s">
+        <v>62</v>
+      </c>
+      <c r="W20" t="s">
+        <v>62</v>
+      </c>
+      <c r="X20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>62</v>
+      </c>
+      <c r="R26" t="s">
+        <v>62</v>
+      </c>
+      <c r="S26" t="s">
+        <v>62</v>
+      </c>
+      <c r="T26" t="s">
+        <v>62</v>
+      </c>
+      <c r="U26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>45488</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="H27" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" t="s">
+        <v>62</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27" t="s">
+        <v>62</v>
+      </c>
+      <c r="S27" t="s">
+        <v>62</v>
+      </c>
+      <c r="T27" t="s">
+        <v>62</v>
+      </c>
+      <c r="U27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>0.9</v>
+      </c>
+      <c r="E28">
+        <v>45491</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>62</v>
+      </c>
+      <c r="R28" t="s">
+        <v>62</v>
+      </c>
+      <c r="S28" t="s">
+        <v>62</v>
+      </c>
+      <c r="T28" t="s">
+        <v>62</v>
+      </c>
+      <c r="U28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>45496</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R29" t="s">
+        <v>62</v>
+      </c>
+      <c r="S29" t="s">
+        <v>62</v>
+      </c>
+      <c r="T29" t="s">
+        <v>62</v>
+      </c>
+      <c r="U29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>45500</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>62</v>
+      </c>
+      <c r="R30" t="s">
+        <v>62</v>
+      </c>
+      <c r="S30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>45503</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31" t="s">
+        <v>62</v>
+      </c>
+      <c r="S31" t="s">
+        <v>62</v>
+      </c>
+      <c r="T31" t="s">
+        <v>62</v>
+      </c>
+      <c r="U31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DC62CD-3EE7-E74B-AD24-DC2EBCC4815B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A1048576" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -23302,17 +26339,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK34">
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK34">
-    <cfRule type="expression" dxfId="7" priority="78">
+    <cfRule type="expression" dxfId="6" priority="78">
       <formula>H$7&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
